--- a/medicine/Enfance/Les_Enfants_de_Noé/Les_Enfants_de_Noé.xlsx
+++ b/medicine/Enfance/Les_Enfants_de_Noé/Les_Enfants_de_Noé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Enfants_de_No%C3%A9</t>
+          <t>Les_Enfants_de_Noé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Enfants de Noé est un roman d'anticipation de l'écrivain français Jean Joubert, paru à L'École des loisirs en 1987, collection Médium.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Enfants_de_No%C3%A9</t>
+          <t>Les_Enfants_de_Noé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire se déroule en février 2036. À la suite d'expériences menées par des scientifiques en Arctique, une grande partie de l'hémisphère nord se retrouve enseveli sous des mètres de neige. Simon, Noémie et leur parents s'y retrouvent coincés du monde extérieure dans un chalet léguée par leur tante, Agathe. Ils doivent réunir leurs nourritures restante pour survivre pendants des semaines. Le livre raconte la survie d'une famille coincés dans un chalet de haute montagne sous des mètres de neiges, qui, coupé du monde, doit réapprendre à vivre comme dans les temps anciens. 
  Portail de la littérature d’enfance et de jeunesse                     </t>
